--- a/Resource/TestData/CRMTestdata.xlsx
+++ b/Resource/TestData/CRMTestdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="19815" windowHeight="7815" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="PROFILE" sheetId="4" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="ADDRESS_INFO" sheetId="3" r:id="rId6"/>
     <sheet name="OFFER" sheetId="7" r:id="rId7"/>
     <sheet name="CREATE_TICKET" sheetId="8" r:id="rId8"/>
+    <sheet name="SMARTFREN_ISI_PULSA" sheetId="9" r:id="rId9"/>
+    <sheet name="SMARTFREN_BELI_PAKET" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="123">
   <si>
     <t>TestCaseId</t>
   </si>
@@ -342,6 +344,54 @@
   </si>
   <si>
     <t>Mobile Activation required</t>
+  </si>
+  <si>
+    <t>DUPLICATE_ENTRY</t>
+  </si>
+  <si>
+    <t>MDN_Number</t>
+  </si>
+  <si>
+    <t>RP_Value</t>
+  </si>
+  <si>
+    <t>Payment_Type</t>
+  </si>
+  <si>
+    <t>PIN_NUMBER_Digit1</t>
+  </si>
+  <si>
+    <t>PIN_NUMBER_Digit2</t>
+  </si>
+  <si>
+    <t>PIN_NUMBER_Digit3</t>
+  </si>
+  <si>
+    <t>PIN_NUMBER_Digit4</t>
+  </si>
+  <si>
+    <t>PIN_NUMBER_Digit5</t>
+  </si>
+  <si>
+    <t>PIN_NUMBER_Digit6</t>
+  </si>
+  <si>
+    <t>Eload Balance</t>
+  </si>
+  <si>
+    <t>Package</t>
+  </si>
+  <si>
+    <t>Unlimited Maxi 22,5 RB</t>
+  </si>
+  <si>
+    <t>Rp 22.500</t>
+  </si>
+  <si>
+    <t>Internet 10rb</t>
+  </si>
+  <si>
+    <t>Rp 10.000</t>
   </si>
 </sst>
 </file>
@@ -349,17 +399,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="181" formatCode="#\ ??/??"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,6 +429,19 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -403,12 +474,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF202124"/>
-      <name val="Consolas"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -421,21 +486,6 @@
       <color rgb="FFA9B7C6"/>
       <name val="Courier New"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -452,15 +502,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,15 +526,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -505,6 +542,35 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -514,15 +580,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -530,7 +588,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -558,13 +616,26 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -574,7 +645,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,13 +693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,25 +705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,25 +723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,13 +735,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -694,7 +765,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,31 +783,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,13 +813,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,33 +889,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -836,6 +909,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -870,13 +952,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -894,13 +989,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -912,195 +1007,236 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1155,6 +1291,18 @@
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1446,132 +1594,132 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:17">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="20"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" ht="15.75" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="18">
         <v>21243</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="26">
         <v>33333</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="26">
         <v>33333</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="26">
         <v>33.3</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="26">
         <v>33.3</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="26" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:16">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="18">
         <v>21243</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="26" t="s">
         <v>32</v>
       </c>
       <c r="J3" t="s">
@@ -1597,29 +1745,29 @@
       </c>
     </row>
     <row r="4" ht="15.75" spans="1:16">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="18">
         <v>21243</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="31"/>
+      <c r="F4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="26" t="s">
         <v>32</v>
       </c>
       <c r="J4" t="s">
@@ -1645,31 +1793,31 @@
       </c>
     </row>
     <row r="5" ht="15.75" spans="1:16">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="18">
         <v>21243</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="26" t="s">
         <v>32</v>
       </c>
       <c r="J5" t="s">
@@ -1699,6 +1847,749 @@
     <hyperlink ref="E2" r:id="rId1" display="email@gmail.com"/>
     <hyperlink ref="E3" r:id="rId2" display="email44@gmail.com"/>
   </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="2" max="3" width="11.1428571428571" customWidth="1"/>
+    <col min="4" max="5" width="13.7142857142857" customWidth="1"/>
+    <col min="6" max="6" width="11.1428571428571" customWidth="1"/>
+    <col min="7" max="7" width="15.2857142857143" customWidth="1"/>
+    <col min="8" max="8" width="21.1428571428571" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10.5714285714286" customWidth="1"/>
+    <col min="11" max="11" width="11.2857142857143" customWidth="1"/>
+    <col min="12" max="12" width="10.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="8.42857142857143" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="6" t="str">
+        <f t="shared" ref="A2:A65" si="0">_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8">
+        <v>88903200552</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H2" s="12">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12">
+        <v>6</v>
+      </c>
+      <c r="K2" s="12">
+        <v>0</v>
+      </c>
+      <c r="L2" s="12">
+        <v>9</v>
+      </c>
+      <c r="M2" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8">
+        <v>88903200306</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="H3" s="12">
+        <v>2</v>
+      </c>
+      <c r="I3" s="12">
+        <v>5</v>
+      </c>
+      <c r="J3" s="12">
+        <v>6</v>
+      </c>
+      <c r="K3" s="12">
+        <v>0</v>
+      </c>
+      <c r="L3" s="12">
+        <v>9</v>
+      </c>
+      <c r="M3" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="6" t="str">
+        <f t="shared" ref="A66:A100" si="1">_xlfn.CONCAT(B66:C66)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1726,111 +2617,111 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:16">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="22" t="s">
         <v>42</v>
       </c>
       <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14" t="s">
+      <c r="J2" s="26"/>
+      <c r="K2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="26">
         <v>52310</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="26">
         <v>54355</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="26">
         <v>54.1</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="26">
         <v>14.1</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="6:8">
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="30" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1854,7 +2745,7 @@
     <col min="1" max="1" width="13.5714285714286" customWidth="1"/>
     <col min="2" max="2" width="16.4285714285714" customWidth="1"/>
     <col min="3" max="3" width="20.7142857142857" customWidth="1"/>
-    <col min="4" max="4" width="29.5714285714286" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.5714285714286" style="13" customWidth="1"/>
     <col min="5" max="8" width="16.8571428571429" customWidth="1"/>
     <col min="9" max="9" width="15.5714285714286" customWidth="1"/>
     <col min="10" max="10" width="16.4285714285714" customWidth="1"/>
@@ -1864,152 +2755,152 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:16">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:16">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="11">
+      <c r="D2" s="23">
         <v>251311000009</v>
       </c>
       <c r="E2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="L2" s="14">
+      <c r="L2" s="26">
         <v>52310</v>
       </c>
-      <c r="M2" s="14">
+      <c r="M2" s="26">
         <v>54355</v>
       </c>
-      <c r="N2" s="14">
+      <c r="N2" s="26">
         <v>54.1</v>
       </c>
-      <c r="O2" s="14">
+      <c r="O2" s="26">
         <v>14.1</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="P2" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:16">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="23">
         <v>251311000009</v>
       </c>
       <c r="E3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="26">
         <v>22222</v>
       </c>
-      <c r="M3" s="14">
+      <c r="M3" s="26">
         <v>2222</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="26">
         <v>60</v>
       </c>
-      <c r="O3" s="14">
+      <c r="O3" s="26">
         <v>72</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="26" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2032,102 +2923,102 @@
   <cols>
     <col min="1" max="1" width="15.1428571428571" customWidth="1"/>
     <col min="2" max="2" width="12.1428571428571" customWidth="1"/>
-    <col min="3" max="3" width="16.8571428571429" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.1428571428571" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.8571428571429" style="1"/>
-    <col min="6" max="6" width="27" style="15"/>
-    <col min="7" max="7" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8571428571429" style="13" customWidth="1"/>
+    <col min="4" max="4" width="24.1428571428571" style="13" customWidth="1"/>
+    <col min="5" max="5" width="19.8571428571429" style="13"/>
+    <col min="6" max="6" width="27" style="27"/>
+    <col min="7" max="7" width="17" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="18">
         <v>21243</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="23">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="24">
         <v>9.68800452916137e+17</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="13">
         <v>911234567890</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="18">
         <v>21244</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="23">
         <v>251311000009</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="24">
         <v>9.68800452916137e+17</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="13">
         <v>911234567890</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="18">
         <v>21245</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="23">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="24">
         <v>9.68800452916137e+17</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="13">
         <v>911234567890</v>
       </c>
     </row>
@@ -2143,7 +3034,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J2"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
@@ -2161,130 +3052,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="26" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="26">
         <v>52310</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="26">
         <v>54355</v>
       </c>
-      <c r="H2" s="14">
+      <c r="H2" s="26">
         <v>54.1</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="26">
         <v>14.1</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="26">
         <v>52311</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="26">
         <v>54356</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="26">
         <v>58.1</v>
       </c>
-      <c r="I3" s="14">
+      <c r="I3" s="26">
         <v>16.1</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="26" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="26">
         <v>52312</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="26">
         <v>54357</v>
       </c>
-      <c r="H4" s="14">
+      <c r="H4" s="26">
         <v>62.1</v>
       </c>
-      <c r="I4" s="14">
+      <c r="I4" s="26">
         <v>18.1</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="26" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2333,28 +3224,28 @@
       <c r="E1" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2365,7 +3256,7 @@
       <c r="D2" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="18">
         <v>21243</v>
       </c>
     </row>
@@ -2381,7 +3272,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A1" sqref="A1:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="6"/>
@@ -2394,94 +3285,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="13" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="18">
         <v>21243</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E2" s="23">
         <v>251311000009</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="13">
         <v>911234567890</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="18">
         <v>21244</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="23">
         <v>251311000009</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="13">
         <v>911234567890</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="18">
         <v>21245</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="23">
         <v>251311000011</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="24">
         <v>9.68800452916137e+17</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="13">
         <v>911234567890</v>
       </c>
     </row>
@@ -2496,177 +3387,911 @@
   <sheetPr/>
   <dimension ref="A1:R4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3"/>
   <cols>
-    <col min="17" max="17" width="11.7142857142857" style="1"/>
+    <col min="17" max="17" width="11.7142857142857" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="16" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:18">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="Q2" s="7">
+      <c r="Q2" s="19">
         <v>7877997701</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="17" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="5"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="17"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="5"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L100"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5714285714286" customWidth="1"/>
+    <col min="2" max="3" width="11.1428571428571" customWidth="1"/>
+    <col min="4" max="4" width="13.7142857142857" customWidth="1"/>
+    <col min="5" max="5" width="11.1428571428571" customWidth="1"/>
+    <col min="6" max="6" width="15.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="19.5714285714286" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="9" max="9" width="10.5714285714286" customWidth="1"/>
+    <col min="10" max="10" width="11.2857142857143" customWidth="1"/>
+    <col min="11" max="11" width="10.1428571428571" customWidth="1"/>
+    <col min="12" max="12" width="19.4285714285714" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="6" t="str">
+        <f t="shared" ref="A2:A65" si="0">_xlfn.CONCAT(B2:C2)</f>
+        <v>TC_001TD_01</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="8">
+        <v>88903200552</v>
+      </c>
+      <c r="E2" s="8">
+        <v>7000</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2</v>
+      </c>
+      <c r="H2" s="12">
+        <v>5</v>
+      </c>
+      <c r="I2" s="12">
+        <v>6</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="12">
+        <v>9</v>
+      </c>
+      <c r="L2" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>TC_001TD_02</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="8">
+        <v>88903200306</v>
+      </c>
+      <c r="E3" s="8">
+        <v>7000</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2</v>
+      </c>
+      <c r="H3" s="12">
+        <v>5</v>
+      </c>
+      <c r="I3" s="12">
+        <v>6</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0</v>
+      </c>
+      <c r="K3" s="12">
+        <v>9</v>
+      </c>
+      <c r="L3" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="6" t="str">
+        <f t="shared" ref="A66:A100" si="1">_xlfn.CONCAT(B66:C66)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2:A100">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>